--- a/documents/example_docs_school/русский язык и литература.xlsx
+++ b/documents/example_docs_school/русский язык и литература.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ekaterinaslapnikova/Desktop/myCockroches/выпускная квалификационная работа/project/graduate-work/documents/example_docs_school/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C75AEEDD-85B7-554E-965A-C65DAB6C52C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FABE061F-BAA1-7F41-A9D6-0D49F785D62F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{FBBDF933-0F1E-AC40-80DD-8DB0C1995A3B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15960" xr2:uid="{FBBDF933-0F1E-AC40-80DD-8DB0C1995A3B}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -52,13 +52,13 @@
     <t>класс</t>
   </si>
   <si>
-    <t>А</t>
-  </si>
-  <si>
     <t>В</t>
   </si>
   <si>
     <t>ФИО(полное) учителя</t>
+  </si>
+  <si>
+    <t>Г</t>
   </si>
 </sst>
 </file>
@@ -414,7 +414,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -430,7 +430,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
@@ -450,7 +450,7 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -464,7 +464,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/documents/example_docs_school/русский язык и литература.xlsx
+++ b/documents/example_docs_school/русский язык и литература.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ekaterinaslapnikova/Desktop/myCockroches/выпускная квалификационная работа/project/graduate-work/documents/example_docs_school/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FABE061F-BAA1-7F41-A9D6-0D49F785D62F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B1CAF64-8CB1-4A42-BDBD-33BBDC1D8898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15960" xr2:uid="{FBBDF933-0F1E-AC40-80DD-8DB0C1995A3B}"/>
+    <workbookView xWindow="12580" yWindow="500" windowWidth="15960" windowHeight="15940" xr2:uid="{FBBDF933-0F1E-AC40-80DD-8DB0C1995A3B}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -35,17 +35,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="37">
   <si>
     <t>наименование</t>
   </si>
   <si>
-    <t>Гайнуллина Алина Рашидовна</t>
-  </si>
-  <si>
-    <t>русский язык</t>
-  </si>
-  <si>
     <t>поток</t>
   </si>
   <si>
@@ -59,19 +53,119 @@
   </si>
   <si>
     <t>Г</t>
+  </si>
+  <si>
+    <t>Русский язык</t>
+  </si>
+  <si>
+    <t>А</t>
+  </si>
+  <si>
+    <t>Б</t>
+  </si>
+  <si>
+    <t>Д</t>
+  </si>
+  <si>
+    <t>Кузнецов П. В.</t>
+  </si>
+  <si>
+    <t>Головина В. Ю.</t>
+  </si>
+  <si>
+    <t>Богомолов Е. Д.</t>
+  </si>
+  <si>
+    <t>Васильева М. М.</t>
+  </si>
+  <si>
+    <t>Куликов М. А.</t>
+  </si>
+  <si>
+    <t>Соболева А. Е.</t>
+  </si>
+  <si>
+    <t>Сальников Л. А.</t>
+  </si>
+  <si>
+    <t>Власова В. И.</t>
+  </si>
+  <si>
+    <t>Королева А. А.</t>
+  </si>
+  <si>
+    <t>Парамонова А. Р.</t>
+  </si>
+  <si>
+    <t>Муратов Я. Л.</t>
+  </si>
+  <si>
+    <t>Третьякова В. П.</t>
+  </si>
+  <si>
+    <t>Никонова В. Е.</t>
+  </si>
+  <si>
+    <t>Носов Д. А.</t>
+  </si>
+  <si>
+    <t>Исаев Н. Ю.</t>
+  </si>
+  <si>
+    <t>Чижова П. Д.</t>
+  </si>
+  <si>
+    <t>Новикова Е. Д.</t>
+  </si>
+  <si>
+    <t>Соловьев И. Я.</t>
+  </si>
+  <si>
+    <t>Павлов С. Т.</t>
+  </si>
+  <si>
+    <t>Широков А. В.</t>
+  </si>
+  <si>
+    <t>Литературное чтение</t>
+  </si>
+  <si>
+    <t>Гончаров А. М.</t>
+  </si>
+  <si>
+    <t>Суханов Р. Д.</t>
+  </si>
+  <si>
+    <t>Петрова П. С.</t>
+  </si>
+  <si>
+    <t>Литература</t>
+  </si>
+  <si>
+    <t>Львова М. Ф.</t>
+  </si>
+  <si>
+    <t>Моисеева А. Д.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -95,8 +189,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -411,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40E4EB94-B1C0-BE47-A9AD-9B963093183B}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -430,40 +525,1244 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D7" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="1">
+        <v>3</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="1">
+        <v>3</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="1">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="1">
+        <v>3</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="1">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="1">
+        <v>4</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="1">
+        <v>4</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="1">
+        <v>4</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="1">
+        <v>4</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="1">
+        <v>4</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="1">
         <v>1</v>
       </c>
-      <c r="C3">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="D22" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="1">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="1">
+        <v>2</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="1">
+        <v>2</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="1">
+        <v>2</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="1">
+        <v>2</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="1">
+        <v>3</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="1">
+        <v>3</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="1">
+        <v>3</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" s="1">
+        <v>3</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" s="1">
+        <v>3</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" s="1">
+        <v>4</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38" s="1">
+        <v>4</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>30</v>
+      </c>
+      <c r="B39" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" s="1">
+        <v>4</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>30</v>
+      </c>
+      <c r="B40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" s="1">
+        <v>4</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>30</v>
+      </c>
+      <c r="B41" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" s="1">
+        <v>4</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42" s="1">
+        <v>5</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" t="s">
+        <v>32</v>
+      </c>
+      <c r="C43" s="1">
+        <v>6</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" t="s">
+        <v>33</v>
+      </c>
+      <c r="C44" s="1">
+        <v>7</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" t="s">
+        <v>31</v>
+      </c>
+      <c r="C45" s="1">
+        <v>5</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" t="s">
+        <v>32</v>
+      </c>
+      <c r="C46" s="1">
+        <v>6</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" t="s">
+        <v>33</v>
+      </c>
+      <c r="C47" s="1">
+        <v>7</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" t="s">
+        <v>31</v>
+      </c>
+      <c r="C48" s="1">
+        <v>5</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" t="s">
+        <v>32</v>
+      </c>
+      <c r="C49" s="1">
+        <v>6</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" t="s">
+        <v>33</v>
+      </c>
+      <c r="C50" s="1">
+        <v>7</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>34</v>
+      </c>
+      <c r="B51" t="s">
+        <v>31</v>
+      </c>
+      <c r="C51" s="1">
+        <v>5</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>34</v>
+      </c>
+      <c r="B52" t="s">
+        <v>32</v>
+      </c>
+      <c r="C52" s="1">
+        <v>6</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>34</v>
+      </c>
+      <c r="B53" t="s">
+        <v>33</v>
+      </c>
+      <c r="C53" s="1">
+        <v>7</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>34</v>
+      </c>
+      <c r="B54" t="s">
+        <v>31</v>
+      </c>
+      <c r="C54" s="1">
+        <v>5</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>34</v>
+      </c>
+      <c r="B55" t="s">
+        <v>32</v>
+      </c>
+      <c r="C55" s="1">
+        <v>6</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>34</v>
+      </c>
+      <c r="B56" t="s">
+        <v>33</v>
+      </c>
+      <c r="C56" s="1">
+        <v>7</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>34</v>
+      </c>
+      <c r="B57" t="s">
+        <v>31</v>
+      </c>
+      <c r="C57" s="1">
+        <v>5</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>34</v>
+      </c>
+      <c r="B58" t="s">
+        <v>32</v>
+      </c>
+      <c r="C58" s="1">
+        <v>6</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>34</v>
+      </c>
+      <c r="B59" t="s">
+        <v>33</v>
+      </c>
+      <c r="C59" s="1">
+        <v>7</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60" t="s">
+        <v>35</v>
+      </c>
+      <c r="C60" s="1">
+        <v>8</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61" t="s">
+        <v>36</v>
+      </c>
+      <c r="C61" s="1">
+        <v>9</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62" t="s">
+        <v>35</v>
+      </c>
+      <c r="C62" s="1">
+        <v>8</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>6</v>
+      </c>
+      <c r="B63" t="s">
+        <v>36</v>
+      </c>
+      <c r="C63" s="1">
+        <v>9</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>6</v>
+      </c>
+      <c r="B64" t="s">
+        <v>35</v>
+      </c>
+      <c r="C64" s="1">
+        <v>8</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>6</v>
+      </c>
+      <c r="B65" t="s">
+        <v>36</v>
+      </c>
+      <c r="C65" s="1">
+        <v>9</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>34</v>
+      </c>
+      <c r="B66" t="s">
+        <v>35</v>
+      </c>
+      <c r="C66" s="1">
+        <v>8</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>34</v>
+      </c>
+      <c r="B67" t="s">
+        <v>36</v>
+      </c>
+      <c r="C67" s="1">
+        <v>9</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>34</v>
+      </c>
+      <c r="B68" t="s">
+        <v>35</v>
+      </c>
+      <c r="C68" s="1">
+        <v>8</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>34</v>
+      </c>
+      <c r="B69" t="s">
+        <v>36</v>
+      </c>
+      <c r="C69" s="1">
+        <v>9</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>34</v>
+      </c>
+      <c r="B70" t="s">
+        <v>35</v>
+      </c>
+      <c r="C70" s="1">
+        <v>8</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>34</v>
+      </c>
+      <c r="B71" t="s">
+        <v>36</v>
+      </c>
+      <c r="C71" s="1">
+        <v>9</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B72" t="s">
+        <v>35</v>
+      </c>
+      <c r="C72" s="1">
+        <v>10</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>6</v>
+      </c>
+      <c r="B73" t="s">
+        <v>36</v>
+      </c>
+      <c r="C73" s="1">
+        <v>11</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>6</v>
+      </c>
+      <c r="B74" t="s">
+        <v>35</v>
+      </c>
+      <c r="C74" s="1">
+        <v>10</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>6</v>
+      </c>
+      <c r="B75" t="s">
+        <v>36</v>
+      </c>
+      <c r="C75" s="1">
+        <v>11</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>6</v>
+      </c>
+      <c r="B76" t="s">
+        <v>35</v>
+      </c>
+      <c r="C76" s="1">
+        <v>10</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>6</v>
+      </c>
+      <c r="B77" t="s">
+        <v>36</v>
+      </c>
+      <c r="C77" s="1">
+        <v>11</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>34</v>
+      </c>
+      <c r="B78" t="s">
+        <v>35</v>
+      </c>
+      <c r="C78" s="1">
+        <v>10</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>34</v>
+      </c>
+      <c r="B79" t="s">
+        <v>36</v>
+      </c>
+      <c r="C79" s="1">
+        <v>11</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>34</v>
+      </c>
+      <c r="B80" t="s">
+        <v>35</v>
+      </c>
+      <c r="C80" s="1">
+        <v>10</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>34</v>
+      </c>
+      <c r="B81" t="s">
+        <v>36</v>
+      </c>
+      <c r="C81" s="1">
+        <v>11</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>34</v>
+      </c>
+      <c r="B82" t="s">
+        <v>35</v>
+      </c>
+      <c r="C82" s="1">
+        <v>10</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>34</v>
+      </c>
+      <c r="B83" t="s">
+        <v>36</v>
+      </c>
+      <c r="C83" s="1">
+        <v>11</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>6</v>
+      </c>
+      <c r="B84" t="s">
+        <v>31</v>
+      </c>
+      <c r="C84" s="1">
+        <v>5</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>6</v>
+      </c>
+      <c r="B85" t="s">
+        <v>32</v>
+      </c>
+      <c r="C85" s="1">
+        <v>6</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>6</v>
+      </c>
+      <c r="B86" t="s">
+        <v>33</v>
+      </c>
+      <c r="C86" s="1">
+        <v>7</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>34</v>
+      </c>
+      <c r="B87" t="s">
+        <v>31</v>
+      </c>
+      <c r="C87" s="1">
+        <v>5</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>34</v>
+      </c>
+      <c r="B88" t="s">
+        <v>32</v>
+      </c>
+      <c r="C88" s="1">
+        <v>6</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>34</v>
+      </c>
+      <c r="B89" t="s">
+        <v>33</v>
+      </c>
+      <c r="C89" s="1">
+        <v>7</v>
+      </c>
+      <c r="D89" s="1" t="s">
         <v>5</v>
       </c>
     </row>
